--- a/tests/ground_truth/ground_truth_postmortem.xlsx
+++ b/tests/ground_truth/ground_truth_postmortem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcampbell/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D48502-DDCA-3548-AA77-E664DC92BC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F02FA49-F64C-BE42-9A8E-AB22A47FF7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3140" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidents V3" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="219">
   <si>
     <t>Incident ID</t>
   </si>
@@ -1710,8 +1710,8 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="A1:AD32"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18:AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2190,100 +2190,928 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>26032</v>
       </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>32679</v>
       </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>47149</v>
       </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>47969</v>
       </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>53309</v>
       </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>54193</v>
       </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>56266</v>
       </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>66881</v>
       </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>68976</v>
       </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>77003</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="350" x14ac:dyDescent="0.2">
